--- a/public/dokumen/template_upload.xlsx
+++ b/public/dokumen/template_upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leo\evoting-osis\public\dokumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -99,13 +99,28 @@
   </si>
   <si>
     <t>Lela</t>
+  </si>
+  <si>
+    <t>hapus ini kalo mau di upload</t>
+  </si>
+  <si>
+    <t>kolom kelas diambil dari ID Class pada menu kelas, jika kelas belum diinput, bisa dikosongkan.</t>
+  </si>
+  <si>
+    <t>roles wajib diisi dengan "siswa" (hilangkan tanda petik), harus huruf kecil semua</t>
+  </si>
+  <si>
+    <t>email dan nis yang diinput harus Unik atau berbeda dengan yang lain (tidak boleh sama)</t>
+  </si>
+  <si>
+    <t>nama dan nis wajib diisi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +135,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,13 +165,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +680,59 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:9" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -668,5 +744,6 @@
     <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>